--- a/Lifting Log_2018.xlsx
+++ b/Lifting Log_2018.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\OneDrive\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_142E829C843E6CE84DFC9890E2AC9AB4FB958116" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{FEFAC9C6-0756-479D-836D-1AF77DC6A242}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{020A1012-46E6-46AA-B61B-91EBCE0EF563}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -470,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,6 +1307,278 @@
         <v>183</v>
       </c>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <v>43379</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>380</v>
+      </c>
+      <c r="F42">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>43379</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>205</v>
+      </c>
+      <c r="F43">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>43380</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>225</v>
+      </c>
+      <c r="F44">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>43380</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>245</v>
+      </c>
+      <c r="F45">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>43382</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>430</v>
+      </c>
+      <c r="F46">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
+        <v>43382</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>205</v>
+      </c>
+      <c r="F47">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="3">
+        <v>43383</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>200</v>
+      </c>
+      <c r="F48">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
+        <v>43385</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>380</v>
+      </c>
+      <c r="F49">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
+        <v>43385</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>205</v>
+      </c>
+      <c r="F50">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <v>43386</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>225</v>
+      </c>
+      <c r="F51">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="3">
+        <v>43386</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>250</v>
+      </c>
+      <c r="F52">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="3">
+        <v>43386</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>250</v>
+      </c>
+      <c r="F53">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="3">
+        <v>43388</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>205</v>
+      </c>
+      <c r="F54">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="3">
+        <v>43388</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>440</v>
+      </c>
+      <c r="F55">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="3">
+        <v>43400</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>260</v>
+      </c>
+      <c r="F56">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="3">
+        <v>43400</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>225</v>
+      </c>
+      <c r="F57">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lifting Log_2018.xlsx
+++ b/Lifting Log_2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\OneDrive\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{020A1012-46E6-46AA-B61B-91EBCE0EF563}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="6_{A61DF2FC-2E54-433C-9566-9DE128D06E88}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{21D74B5F-14C9-4306-9448-041D3D276BD4}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>43400</v>
+        <v>43390</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>43400</v>
+        <v>43390</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -1576,6 +1576,329 @@
         <v>225</v>
       </c>
       <c r="F57">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="3">
+        <v>43395</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>385</v>
+      </c>
+      <c r="F58">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="3">
+        <v>43395</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>205</v>
+      </c>
+      <c r="F59">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="3">
+        <v>43397</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>225</v>
+      </c>
+      <c r="F60">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="3">
+        <v>43397</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>255</v>
+      </c>
+      <c r="F61">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="3">
+        <v>43399</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>460</v>
+      </c>
+      <c r="F62">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="3">
+        <v>43399</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>205</v>
+      </c>
+      <c r="F63">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="3">
+        <v>43400</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>240</v>
+      </c>
+      <c r="F64">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="3">
+        <v>43400</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>205</v>
+      </c>
+      <c r="F65">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="3">
+        <v>43402</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>420</v>
+      </c>
+      <c r="F66">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="3">
+        <v>43402</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>225</v>
+      </c>
+      <c r="F67">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="3">
+        <v>43403</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>235</v>
+      </c>
+      <c r="F68">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="3">
+        <v>43403</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>205</v>
+      </c>
+      <c r="F69">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="3">
+        <v>43403</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>270</v>
+      </c>
+      <c r="F70">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="3">
+        <v>43406</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>495</v>
+      </c>
+      <c r="F71">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="3">
+        <v>43406</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>225</v>
+      </c>
+      <c r="F72">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="3">
+        <v>43409</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>435</v>
+      </c>
+      <c r="F73">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="3">
+        <v>43409</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>225</v>
+      </c>
+      <c r="F74">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="3">
+        <v>43411</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>255</v>
+      </c>
+      <c r="F75">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="3">
+        <v>43411</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>225</v>
+      </c>
+      <c r="F76">
         <v>186</v>
       </c>
     </row>

--- a/Lifting Log_2018.xlsx
+++ b/Lifting Log_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\OneDrive\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="6_{A61DF2FC-2E54-433C-9566-9DE128D06E88}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{21D74B5F-14C9-4306-9448-041D3D276BD4}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="6_{A61DF2FC-2E54-433C-9566-9DE128D06E88}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{7B2E78E1-9ACF-4635-B541-28F44012D101}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1902,6 +1902,57 @@
         <v>186</v>
       </c>
     </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="3">
+        <v>43413</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>500</v>
+      </c>
+      <c r="F77">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="3">
+        <v>43416</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>395</v>
+      </c>
+      <c r="F78">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="3">
+        <v>43416</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
+      </c>
+      <c r="E79">
+        <v>187</v>
+      </c>
+      <c r="F79">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lifting Log_2018.xlsx
+++ b/Lifting Log_2018.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\OneDrive\Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\OneDrive\Training\MeetPrep_RalRuckus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="6_{A61DF2FC-2E54-433C-9566-9DE128D06E88}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{7B2E78E1-9ACF-4635-B541-28F44012D101}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="102_{7E9236AC-C17D-B94F-B6E8-A54F4668EA06}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{80445823-4905-4D4B-AB9C-70F5D8013FD1}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>row</t>
+  </si>
+  <si>
+    <t>chins</t>
   </si>
 </sst>
 </file>
@@ -477,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,10 +1950,707 @@
         <v>7</v>
       </c>
       <c r="E79">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="F79">
         <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="3">
+        <v>43418</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
+      </c>
+      <c r="E80">
+        <v>230</v>
+      </c>
+      <c r="F80">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="3">
+        <v>43418</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>240</v>
+      </c>
+      <c r="F81">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="3">
+        <v>43418</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>250</v>
+      </c>
+      <c r="F82">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="3">
+        <v>43418</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>15</v>
+      </c>
+      <c r="E83">
+        <v>205</v>
+      </c>
+      <c r="F83">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="3">
+        <v>43420</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <v>185</v>
+      </c>
+      <c r="F84">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="3">
+        <v>43422</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>205</v>
+      </c>
+      <c r="F85">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="3">
+        <v>43426</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>245</v>
+      </c>
+      <c r="F86">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="3">
+        <v>43426</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>12</v>
+      </c>
+      <c r="E87">
+        <v>25</v>
+      </c>
+      <c r="F87">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="3">
+        <v>43428</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>215</v>
+      </c>
+      <c r="F88">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="3">
+        <v>43430</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>385</v>
+      </c>
+      <c r="F89">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="3">
+        <v>43430</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>430</v>
+      </c>
+      <c r="F90">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="3">
+        <v>43432</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>235</v>
+      </c>
+      <c r="F91">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="3">
+        <v>43432</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>25</v>
+      </c>
+      <c r="F92">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="3">
+        <v>43432</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>275</v>
+      </c>
+      <c r="F93">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="3">
+        <v>43434</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>430</v>
+      </c>
+      <c r="F94">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="3">
+        <v>43434</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>485</v>
+      </c>
+      <c r="F95">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="3">
+        <v>43434</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>280</v>
+      </c>
+      <c r="F96">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="3">
+        <v>43437</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>395</v>
+      </c>
+      <c r="F97">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="3">
+        <v>43439</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>435</v>
+      </c>
+      <c r="F98">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="3">
+        <v>43439</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>260</v>
+      </c>
+      <c r="F99">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="3">
+        <v>43440</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>400</v>
+      </c>
+      <c r="F100">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="3">
+        <v>43440</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>450</v>
+      </c>
+      <c r="F101">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="3">
+        <v>43440</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>240</v>
+      </c>
+      <c r="F102">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="3">
+        <v>43440</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>255</v>
+      </c>
+      <c r="F103">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="3">
+        <v>43442</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104">
+        <v>250</v>
+      </c>
+      <c r="F104">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="3">
+        <v>43442</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <v>400</v>
+      </c>
+      <c r="F105">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="3">
+        <v>43442</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>450</v>
+      </c>
+      <c r="F106">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="3">
+        <v>43444</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>390</v>
+      </c>
+      <c r="F107">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="3">
+        <v>43444</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>515</v>
+      </c>
+      <c r="F108">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="3">
+        <v>43444</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <v>250</v>
+      </c>
+      <c r="F109">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="3">
+        <v>43456</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>435</v>
+      </c>
+      <c r="F110">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="3">
+        <v>43456</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>500</v>
+      </c>
+      <c r="F111">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="3">
+        <v>43456</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>250</v>
+      </c>
+      <c r="F112">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="3">
+        <v>43460</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <v>405</v>
+      </c>
+      <c r="F113">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="3">
+        <v>43460</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>275</v>
+      </c>
+      <c r="F114">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="3">
+        <v>43436</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>265</v>
+      </c>
+      <c r="F115">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="3">
+        <v>43436</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>455</v>
+      </c>
+      <c r="F116">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="3">
+        <v>43436</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>485</v>
+      </c>
+      <c r="F117">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="3">
+        <v>43439</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>452</v>
+      </c>
+      <c r="F118">
+        <v>181.6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="3">
+        <v>43439</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>275</v>
+      </c>
+      <c r="F119">
+        <v>181.6</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="3">
+        <v>43439</v>
+      </c>
+      <c r="C120" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>500</v>
+      </c>
+      <c r="F120">
+        <v>181.6</v>
       </c>
     </row>
   </sheetData>
